--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3875"/>
+  <dimension ref="A1:C3876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43048,6 +43048,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3876" spans="1:3">
+      <c r="A3876" s="1">
+        <v>4985</v>
+      </c>
+      <c r="B3876" s="2">
+        <v>44783</v>
+      </c>
+      <c r="C3876" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3876"/>
+  <dimension ref="A1:C3877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43059,6 +43059,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3877" spans="1:3">
+      <c r="A3877" s="1">
+        <v>4986</v>
+      </c>
+      <c r="B3877" s="2">
+        <v>44784</v>
+      </c>
+      <c r="C3877" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3877"/>
+  <dimension ref="A1:C3880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43070,6 +43070,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3878" spans="1:3">
+      <c r="A3878" s="1">
+        <v>4987</v>
+      </c>
+      <c r="B3878" s="2">
+        <v>44785</v>
+      </c>
+      <c r="C3878" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:3">
+      <c r="A3879" s="1">
+        <v>4988</v>
+      </c>
+      <c r="B3879" s="2">
+        <v>44786</v>
+      </c>
+      <c r="C3879" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:3">
+      <c r="A3880" s="1">
+        <v>4989</v>
+      </c>
+      <c r="B3880" s="2">
+        <v>44787</v>
+      </c>
+      <c r="C3880" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3880"/>
+  <dimension ref="A1:C3881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43103,6 +43103,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3881" spans="1:3">
+      <c r="A3881" s="1">
+        <v>4990</v>
+      </c>
+      <c r="B3881" s="2">
+        <v>44788</v>
+      </c>
+      <c r="C3881" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3881"/>
+  <dimension ref="A1:C3882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43114,6 +43114,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3882" spans="1:3">
+      <c r="A3882" s="1">
+        <v>4991</v>
+      </c>
+      <c r="B3882" s="2">
+        <v>44789</v>
+      </c>
+      <c r="C3882" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3882"/>
+  <dimension ref="A1:C3883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43125,6 +43125,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3883" spans="1:3">
+      <c r="A3883" s="1">
+        <v>4992</v>
+      </c>
+      <c r="B3883" s="2">
+        <v>44790</v>
+      </c>
+      <c r="C3883" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3883"/>
+  <dimension ref="A1:C3884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43136,6 +43136,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3884" spans="1:3">
+      <c r="A3884" s="1">
+        <v>4993</v>
+      </c>
+      <c r="B3884" s="2">
+        <v>44791</v>
+      </c>
+      <c r="C3884" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3884"/>
+  <dimension ref="A1:C3887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43147,6 +43147,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3885" spans="1:3">
+      <c r="A3885" s="1">
+        <v>4994</v>
+      </c>
+      <c r="B3885" s="2">
+        <v>44792</v>
+      </c>
+      <c r="C3885" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:3">
+      <c r="A3886" s="1">
+        <v>4995</v>
+      </c>
+      <c r="B3886" s="2">
+        <v>44793</v>
+      </c>
+      <c r="C3886" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:3">
+      <c r="A3887" s="1">
+        <v>4996</v>
+      </c>
+      <c r="B3887" s="2">
+        <v>44794</v>
+      </c>
+      <c r="C3887" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3887"/>
+  <dimension ref="A1:C3888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43180,6 +43180,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3888" spans="1:3">
+      <c r="A3888" s="1">
+        <v>4997</v>
+      </c>
+      <c r="B3888" s="2">
+        <v>44795</v>
+      </c>
+      <c r="C3888" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3888"/>
+  <dimension ref="A1:C3889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43191,6 +43191,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3889" spans="1:3">
+      <c r="A3889" s="1">
+        <v>4998</v>
+      </c>
+      <c r="B3889" s="2">
+        <v>44796</v>
+      </c>
+      <c r="C3889" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3889"/>
+  <dimension ref="A1:C3890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43202,6 +43202,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3890" spans="1:3">
+      <c r="A3890" s="1">
+        <v>4999</v>
+      </c>
+      <c r="B3890" s="2">
+        <v>44797</v>
+      </c>
+      <c r="C3890" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3890"/>
+  <dimension ref="A1:C3891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43213,6 +43213,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3891" spans="1:3">
+      <c r="A3891" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B3891" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C3891" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3891"/>
+  <dimension ref="A1:C3896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43224,6 +43224,61 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3892" spans="1:3">
+      <c r="A3892" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B3892" s="2">
+        <v>44799</v>
+      </c>
+      <c r="C3892" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:3">
+      <c r="A3893" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B3893" s="2">
+        <v>44800</v>
+      </c>
+      <c r="C3893" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:3">
+      <c r="A3894" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B3894" s="2">
+        <v>44801</v>
+      </c>
+      <c r="C3894" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:3">
+      <c r="A3895" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B3895" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C3895" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:3">
+      <c r="A3896" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B3896" s="2">
+        <v>44803</v>
+      </c>
+      <c r="C3896" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3896"/>
+  <dimension ref="A1:C3897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43279,6 +43279,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3897" spans="1:3">
+      <c r="A3897" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B3897" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C3897" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3897"/>
+  <dimension ref="A1:C3898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43290,6 +43290,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3898" spans="1:3">
+      <c r="A3898" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B3898" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C3898" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3898"/>
+  <dimension ref="A1:C3901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43301,6 +43301,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3899" spans="1:3">
+      <c r="A3899" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B3899" s="2">
+        <v>44806</v>
+      </c>
+      <c r="C3899" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:3">
+      <c r="A3900" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B3900" s="2">
+        <v>44807</v>
+      </c>
+      <c r="C3900" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:3">
+      <c r="A3901" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B3901" s="2">
+        <v>44808</v>
+      </c>
+      <c r="C3901" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3901"/>
+  <dimension ref="A1:C3902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43334,6 +43334,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3902" spans="1:3">
+      <c r="A3902" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B3902" s="2">
+        <v>44809</v>
+      </c>
+      <c r="C3902" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3902"/>
+  <dimension ref="A1:C3903"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43345,6 +43345,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3903" spans="1:3">
+      <c r="A3903" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B3903" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C3903" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3903"/>
+  <dimension ref="A1:C3904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43356,6 +43356,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3904" spans="1:3">
+      <c r="A3904" s="1">
+        <v>5013</v>
+      </c>
+      <c r="B3904" s="2">
+        <v>44811</v>
+      </c>
+      <c r="C3904" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3904"/>
+  <dimension ref="A1:C3905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43367,6 +43367,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3905" spans="1:3">
+      <c r="A3905" s="1">
+        <v>5014</v>
+      </c>
+      <c r="B3905" s="2">
+        <v>44812</v>
+      </c>
+      <c r="C3905" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3905"/>
+  <dimension ref="A1:C3908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43378,6 +43378,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3906" spans="1:3">
+      <c r="A3906" s="1">
+        <v>5015</v>
+      </c>
+      <c r="B3906" s="2">
+        <v>44813</v>
+      </c>
+      <c r="C3906" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:3">
+      <c r="A3907" s="1">
+        <v>5016</v>
+      </c>
+      <c r="B3907" s="2">
+        <v>44814</v>
+      </c>
+      <c r="C3907" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:3">
+      <c r="A3908" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B3908" s="2">
+        <v>44815</v>
+      </c>
+      <c r="C3908" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3908"/>
+  <dimension ref="A1:C3909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43411,6 +43411,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3909" spans="1:3">
+      <c r="A3909" s="1">
+        <v>5018</v>
+      </c>
+      <c r="B3909" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C3909" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44819</v>
+        <v>44822</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B130">
         <v>2.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B130">
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44826</v>
+        <v>44829</v>
       </c>
       <c r="B130">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B130">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B130">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B130">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B130">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,9 +1423,17 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B131">
         <v>3</v>
       </c>
     </row>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44839</v>
+        <v>44843</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44847</v>
+        <v>44850</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44854</v>
+        <v>44857</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44861</v>
+        <v>44864</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B131">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,6 +1437,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B132">
         <v>3</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,10 +1439,10 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44868</v>
+        <v>44871</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44875</v>
+        <v>44878</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44882</v>
+        <v>44885</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44889</v>
+        <v>44892</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B132">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1445,6 +1445,14 @@
         <v>3.75</v>
       </c>
     </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B133">
+        <v>3.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44896</v>
+        <v>44899</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44901</v>
+        <v>44906</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B133">
         <v>3.75</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,10 +1447,10 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B133">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44917</v>
+        <v>44923</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B133">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,9 +1447,17 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44924</v>
+        <v>44926</v>
       </c>
       <c r="B133">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B134">
         <v>4.25</v>
       </c>
     </row>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B134">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B134">
         <v>4.25</v>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,10 +1455,34 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44930</v>
+        <v>44957</v>
       </c>
       <c r="B134">
         <v>4.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B135">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B136">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B137">
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/fed_rate_lower.xlsx
+++ b/mercados/fed_rate_lower.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,10 +1479,34 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>45027</v>
+        <v>45046</v>
       </c>
       <c r="B137">
         <v>4.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
